--- a/docs/import/04四川在职人员导入模板.xlsx
+++ b/docs/import/04四川在职人员导入模板.xlsx
@@ -396,10 +396,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;￥&quot;\ * #,##0_-;\-&quot;￥&quot;\ * #,##0_-;_-&quot;￥&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;￥&quot;\ * #,##0.00_-;\-&quot;￥&quot;\ * #,##0.00_-;_-&quot;￥&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;￥&quot;\ * #,##0.00_-;\-&quot;￥&quot;\ * #,##0.00_-;_-&quot;￥&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;￥&quot;\ * #,##0_-;\-&quot;￥&quot;\ * #,##0_-;_-&quot;￥&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="35">
@@ -486,7 +486,22 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -494,6 +509,83 @@
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -508,37 +600,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -552,71 +615,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -669,6 +669,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -681,13 +705,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,25 +783,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,127 +825,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,6 +979,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -994,11 +1005,59 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="thick">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1021,125 +1080,66 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1684,7 +1684,7 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4285714285714" defaultRowHeight="12"/>
@@ -2154,38 +2154,38 @@
     <mergeCell ref="A11:R13"/>
   </mergeCells>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O6 O7 O8 O9">
-      <formula1>"四川省,四川省成都市,四川省自贡市,四川省攀枝花市,四川省泸州市,四川省德阳市,四川省绵阳市,四川省广元市,四川省遂宁市,四川省内江市,四川省乐山市,四川省南充市,四川省眉山市,四川省宜宾市,四川省广安市,四川省达州市,四川省雅安市,四川省巴中市,四川省资阳市"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R6 R7 R8 R9">
-      <formula1>"劳动合同,劳务派遣,代理合同,非全日制用工"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9">
       <formula1>"男,女"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D7 D8 D9">
+      <formula1>"身份证,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6 F7 F8 F9">
       <formula1>"初中以下学历,初中及同等学历,高中及同等学历,大专,本科,硕士,博士"</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6 G7 G8 G9">
+      <formula1>18264</formula1>
+      <formula2>54789</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6 H7 H8 H9">
+      <formula1>1</formula1>
+      <formula2>150</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6 I7 I8 I9">
+      <formula1>"广东,北京,天津,河北,山西,内蒙古,辽宁,吉林,黑龙江,上海,江苏,浙江,安徽,福建,江西,山东,河南,湖北,湖南,广西,海南,重庆,四川,贵州,云南,西藏,陕西,甘肃,青海,宁夏,新疆,台湾,香港,澳门,外籍或其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O6 O7 O8 O9">
+      <formula1>"四川省,四川省成都市,四川省自贡市,四川省攀枝花市,四川省泸州市,四川省德阳市,四川省绵阳市,四川省广元市,四川省遂宁市,四川省内江市,四川省乐山市,四川省南充市,四川省眉山市,四川省宜宾市,四川省广安市,四川省达州市,四川省雅安市,四川省巴中市,四川省资阳市"</formula1>
     </dataValidation>
     <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6 P7 P8 P9">
       <formula1>18264</formula1>
       <formula2>73051</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D7 D8 D9">
-      <formula1>"身份证,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6 G7 G8 G9">
-      <formula1>18264</formula1>
-      <formula2>54789</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6 I7 I8 I9">
-      <formula1>"广东,北京,天津,河北,山西,内蒙古,辽宁,吉林,黑龙江,上海,江苏,浙江,安徽,福建,江西,山东,河南,湖北,湖南,广西,海南,重庆,四川,贵州,云南,西藏,陕西,甘肃,青海,宁夏,新疆,台湾,香港,澳门,外籍或其他"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6 H7 H8 H9">
-      <formula1>1</formula1>
-      <formula2>150</formula2>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q6 Q7 Q8 Q9">
       <formula1>"个险营销,团险,银保,电销,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R6 R7 R8 R9">
+      <formula1>"劳动合同,劳务派遣,代理合同,非全日制用工"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>

--- a/docs/import/04四川在职人员导入模板.xlsx
+++ b/docs/import/04四川在职人员导入模板.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="83">
   <si>
     <t>1.0</t>
   </si>
@@ -183,6 +183,15 @@
   </si>
   <si>
     <t>非全日制用工</t>
+  </si>
+  <si>
+    <t>测试错误数据</t>
+  </si>
+  <si>
+    <t>HO4983322224</t>
+  </si>
+  <si>
+    <t>00008644000000023102020000004</t>
   </si>
   <si>
     <t>End Mark(结束标记，勿删除)</t>
@@ -396,10 +405,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;￥&quot;\ * #,##0.00_-;\-&quot;￥&quot;\ * #,##0.00_-;_-&quot;￥&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;￥&quot;\ * #,##0_-;\-&quot;￥&quot;\ * #,##0_-;_-&quot;￥&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;￥&quot;\ * #,##0.00_-;\-&quot;￥&quot;\ * #,##0.00_-;_-&quot;￥&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;￥&quot;\ * #,##0_-;\-&quot;￥&quot;\ * #,##0_-;_-&quot;￥&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="35">
@@ -486,14 +495,22 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -508,22 +525,53 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -537,24 +585,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -568,6 +600,13 @@
       <scheme val="major"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
@@ -584,46 +623,16 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -669,187 +678,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,6 +999,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1001,6 +1019,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1023,41 +1065,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1080,66 +1089,66 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1681,10 +1690,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A12" sqref="A12:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4285714285714" defaultRowHeight="12"/>
@@ -1901,7 +1910,7 @@
     </row>
     <row r="7" s="24" customFormat="1" ht="54" spans="1:18">
       <c r="A7" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="33" t="s">
         <v>34</v>
@@ -1957,7 +1966,7 @@
     </row>
     <row r="8" s="24" customFormat="1" ht="54" spans="1:18">
       <c r="A8" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>44</v>
@@ -2005,7 +2014,7 @@
     </row>
     <row r="9" s="24" customFormat="1" ht="54" spans="1:18">
       <c r="A9" s="31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B9" s="33" t="s">
         <v>50</v>
@@ -2059,52 +2068,82 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" s="25" customFormat="1" ht="24" customHeight="1" spans="1:18">
-      <c r="A10" s="40" t="s">
+    <row r="10" s="24" customFormat="1" ht="54" spans="1:18">
+      <c r="A10" s="31">
+        <v>5</v>
+      </c>
+      <c r="B10" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-    </row>
-    <row r="11" s="25" customFormat="1" ht="33" customHeight="1" spans="1:18">
-      <c r="A11" s="41" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
+      <c r="F10" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="38">
+        <v>35866</v>
+      </c>
+      <c r="H10" s="39">
+        <v>23</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="38">
+        <v>44562</v>
+      </c>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" s="25" customFormat="1" ht="24" customHeight="1" spans="1:18">
+      <c r="A11" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
     </row>
     <row r="12" s="25" customFormat="1" ht="33" customHeight="1" spans="1:18">
-      <c r="A12" s="41"/>
+      <c r="A12" s="41" t="s">
+        <v>60</v>
+      </c>
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
       <c r="D12" s="41"/>
@@ -2143,48 +2182,68 @@
       <c r="Q13" s="41"/>
       <c r="R13" s="41"/>
     </row>
+    <row r="14" s="25" customFormat="1" ht="33" customHeight="1" spans="1:18">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <mergeCells count="6">
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A10:R10"/>
+    <mergeCell ref="A11:R11"/>
     <mergeCell ref="A3:I4"/>
     <mergeCell ref="J3:R4"/>
-    <mergeCell ref="A11:R13"/>
+    <mergeCell ref="A12:R14"/>
   </mergeCells>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C9 C10">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D7 D8 D9">
+    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6 P7 P8 P9 P10">
+      <formula1>18264</formula1>
+      <formula2>73051</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D7 D8 D9 D10">
       <formula1>"身份证,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6 F7 F8 F9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6 F7 F8 F9 F10">
       <formula1>"初中以下学历,初中及同等学历,高中及同等学历,大专,本科,硕士,博士"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6 G7 G8 G9">
+    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6 G7 G8 G9 G10">
       <formula1>18264</formula1>
       <formula2>54789</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6 H7 H8 H9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6 I7 I8 I9 I10">
+      <formula1>"广东,北京,天津,河北,山西,内蒙古,辽宁,吉林,黑龙江,上海,江苏,浙江,安徽,福建,江西,山东,河南,湖北,湖南,广西,海南,重庆,四川,贵州,云南,西藏,陕西,甘肃,青海,宁夏,新疆,台湾,香港,澳门,外籍或其他"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6 H7 H8 H9 H10">
       <formula1>1</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6 I7 I8 I9">
-      <formula1>"广东,北京,天津,河北,山西,内蒙古,辽宁,吉林,黑龙江,上海,江苏,浙江,安徽,福建,江西,山东,河南,湖北,湖南,广西,海南,重庆,四川,贵州,云南,西藏,陕西,甘肃,青海,宁夏,新疆,台湾,香港,澳门,外籍或其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O6 O7 O8 O9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O6 O7 O8 O9 O10">
       <formula1>"四川省,四川省成都市,四川省自贡市,四川省攀枝花市,四川省泸州市,四川省德阳市,四川省绵阳市,四川省广元市,四川省遂宁市,四川省内江市,四川省乐山市,四川省南充市,四川省眉山市,四川省宜宾市,四川省广安市,四川省达州市,四川省雅安市,四川省巴中市,四川省资阳市"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6 P7 P8 P9">
-      <formula1>18264</formula1>
-      <formula2>73051</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q6 Q7 Q8 Q9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q6 Q7 Q8 Q9 Q10">
       <formula1>"个险营销,团险,银保,电销,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R6 R7 R8 R9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R6 R7 R8 R9 R10">
       <formula1>"劳动合同,劳务派遣,代理合同,非全日制用工"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2215,7 +2274,7 @@
   <sheetData>
     <row r="1" ht="51" customHeight="1" spans="1:4">
       <c r="A1" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2223,16 +2282,16 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -2246,7 +2305,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -2258,7 +2317,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -2270,7 +2329,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:4">
@@ -2282,7 +2341,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:4">
@@ -2294,7 +2353,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="29.25" customHeight="1" spans="1:4">
@@ -2306,7 +2365,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -2318,7 +2377,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="64.5" customHeight="1" spans="1:4">
@@ -2330,7 +2389,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="64.5" customHeight="1" spans="1:4">
@@ -2344,7 +2403,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="22" customHeight="1" spans="1:4">
@@ -2356,7 +2415,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="22" customHeight="1" spans="1:4">
@@ -2378,7 +2437,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="78" customHeight="1" spans="1:4">
@@ -2390,7 +2449,7 @@
         <v>17</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="22" customHeight="1" spans="1:4">
@@ -2402,7 +2461,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="22" customHeight="1" spans="1:4">
@@ -2414,7 +2473,7 @@
         <v>19</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="22" customHeight="1" spans="1:4">
@@ -2426,7 +2485,7 @@
         <v>20</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:4">
@@ -2438,7 +2497,7 @@
         <v>21</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="133.5" customHeight="1" spans="1:4">
@@ -2446,21 +2505,21 @@
         <v>36</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="90.75" customHeight="1" spans="1:5">
       <c r="A21" s="7"/>
       <c r="B21" s="21" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E21" s="22"/>
     </row>
